--- a/myapp/files/9_MethodComparePercent/Scenario 327.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 327.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1156</v>
+        <v>6179</v>
       </c>
       <c r="F2" t="n">
-        <v>2.02391582190941</v>
+        <v>1.08752087832403</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4390243902439</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4828</v>
+        <v>18839</v>
       </c>
       <c r="F3" t="n">
-        <v>8.45282490326873</v>
+        <v>3.31571545990394</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.8780487804878</v>
+        <v>2.51798561151079</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4641</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.81682867718107</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3.23741007194245</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>1632</v>
+        <v>13769</v>
       </c>
       <c r="F5" t="n">
-        <v>2.85729292504858</v>
+        <v>2.4233816108826</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4390243902439</v>
+        <v>3.23741007194245</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>7203</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.26774767544392</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.15827338129496</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8410</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.48018297243973</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>31550</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5.55288618079353</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>3.17460317460317</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.23741007194245</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>7463</v>
+        <v>40028</v>
       </c>
       <c r="F9" t="n">
-        <v>13.0661624385034</v>
+        <v>7.0450373389795</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -859,10 +859,10 @@
         <v>6.34920634920635</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J9" t="n">
-        <v>9.75609756097561</v>
+        <v>8.27338129496403</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>8395</v>
+        <v>51131</v>
       </c>
       <c r="F10" t="n">
-        <v>14.6979008001121</v>
+        <v>8.99919566751676</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.76190476190476</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>14.6341463414634</v>
+        <v>8.27338129496403</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2409</v>
+        <v>23002</v>
       </c>
       <c r="F11" t="n">
-        <v>4.21765849046694</v>
+        <v>4.04841483139818</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>7.31707317073171</v>
+        <v>5.75539568345324</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>2300</v>
+        <v>10093</v>
       </c>
       <c r="F12" t="n">
-        <v>4.026822137017</v>
+        <v>1.77639556965924</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4390243902439</v>
+        <v>2.15827338129496</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4995</v>
+        <v>40645</v>
       </c>
       <c r="F13" t="n">
-        <v>8.74520720626083</v>
+        <v>7.1536310243535</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1011,16 +1011,16 @@
         <v>9.52380952380952</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8780487804878</v>
+        <v>4.67625899280575</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>11.1111111111111</v>
+        <v>9.52380952380952</v>
       </c>
     </row>
     <row r="14">
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>6912</v>
+        <v>56270</v>
       </c>
       <c r="F14" t="n">
-        <v>12.1014759178528</v>
+        <v>9.9036737050159</v>
       </c>
       <c r="G14" t="n">
         <v>16</v>
@@ -1049,16 +1049,16 @@
         <v>25.3968253968254</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>14.6341463414634</v>
+        <v>10.431654676259</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>15.8730158730159</v>
+        <v>17.4603174603175</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7576</v>
+        <v>67573</v>
       </c>
       <c r="F15" t="n">
-        <v>13.2640019608873</v>
+        <v>11.8930325798656</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1087,16 +1087,16 @@
         <v>15.8730158730159</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>12.1951219512195</v>
+        <v>9.71223021582734</v>
       </c>
       <c r="K15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>22.2222222222222</v>
+        <v>20.6349206349206</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>1548</v>
+        <v>34348</v>
       </c>
       <c r="F16" t="n">
-        <v>2.71022637743579</v>
+        <v>6.0453418237051</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4390243902439</v>
+        <v>6.11510791366906</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9375</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.65002560839744</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.79856115107914</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>26046</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4.58416714627411</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.87769784172662</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>3342</v>
+        <v>29333</v>
       </c>
       <c r="F19" t="n">
-        <v>5.85114764430905</v>
+        <v>5.1626881249197</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -1239,16 +1239,16 @@
         <v>14.2857142857143</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>4.8780487804878</v>
+        <v>5.03597122302158</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>4.76190476190476</v>
+        <v>6.34920634920635</v>
       </c>
     </row>
     <row r="20">
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>3133</v>
+        <v>38405</v>
       </c>
       <c r="F20" t="n">
-        <v>5.48523206751055</v>
+        <v>6.75938490565374</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -1277,10 +1277,10 @@
         <v>14.2857142857143</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>9.75609756097561</v>
+        <v>6.47482014388489</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>240</v>
+        <v>19391</v>
       </c>
       <c r="F21" t="n">
-        <v>0.420190136036557</v>
+        <v>3.41286896772638</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4390243902439</v>
+        <v>4.31654676258993</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>792</v>
+        <v>4467</v>
       </c>
       <c r="F22" t="n">
-        <v>1.38662744892064</v>
+        <v>0.786204201889213</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4390243902439</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>396</v>
+        <v>6876</v>
       </c>
       <c r="F23" t="n">
-        <v>0.693313724460318</v>
+        <v>1.21019478222302</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4390243902439</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>5661</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.996351463374712</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,16 +1429,16 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.07913669064748</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.58730158730159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>9911</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.74436307251489</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>5027</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.884765731564154</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
